--- a/translation_mapping_2024.xlsx
+++ b/translation_mapping_2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/867ce9a3404be407/Documents/35-GMU/DTRA_paper/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adams\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEF149FF-9E64-4BB1-812D-1B5ACA873974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A7C452-341B-4BC3-A6C2-F6160128DB3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5039ECC4-377A-489F-929E-9619651697A2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5039ECC4-377A-489F-929E-9619651697A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,57 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>PointCloud</t>
-  </si>
-  <si>
-    <t>FloorPlan</t>
-  </si>
-  <si>
-    <t>BIM/CAD</t>
-  </si>
-  <si>
-    <t>AEOLUS</t>
-  </si>
-  <si>
-    <t>CTAnalyst</t>
-  </si>
-  <si>
-    <t>VAPO/IMEA</t>
-  </si>
-  <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>Target</t>
-  </si>
-  <si>
-    <t>CONTAM</t>
-  </si>
-  <si>
-    <t>IIOAC</t>
-  </si>
-  <si>
-    <t>Methods/Tools</t>
-  </si>
-  <si>
-    <t>Software User Manuals</t>
-  </si>
-  <si>
-    <t>Direct Support: Geographic Data Manager</t>
-  </si>
-  <si>
-    <t>Direct Support: Petra</t>
-  </si>
-  <si>
-    <t>VAPO User Manual, Conference Paper</t>
-  </si>
-  <si>
-    <t>Manual Drawing Methods</t>
-  </si>
-  <si>
-    <t>IndoorData</t>
+    <t>Pending Review</t>
   </si>
 </sst>
 </file>
@@ -458,11 +410,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{870FEEDF-E303-4FC5-93B5-10580A8170F2}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -472,121 +422,9 @@
     <col min="4" max="4" width="35.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
         <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
